--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5EDCD5-5FB0-4847-A375-772094EB294E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2860D23-1DCE-45F3-8641-F075347FB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{8197F17A-ED73-45F1-A092-3594500A3EF8}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F31C256D-CC42-4A09-8E42-919C2E9B230D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD522368-DD78-418E-ACB1-3E827B6115B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54840AFB-5CE9-458E-9525-432B16216A32}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2860D23-1DCE-45F3-8641-F075347FB870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AF4151-7134-4785-90D8-2D6FECEAAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F31C256D-CC42-4A09-8E42-919C2E9B230D}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F032601D-86A6-432A-BA7B-FC74A0D28E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54840AFB-5CE9-458E-9525-432B16216A32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F4033F-5DCB-4631-8A6D-EFFC52EE660F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
